--- a/data/spend.xlsx
+++ b/data/spend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4CEB3B-1E26-9B42-8344-3BC2C068BD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE8D072-8CEF-434B-B065-C1B23A4238CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15960" xr2:uid="{13E6382E-6BF9-4A4F-A8CA-2A0895860F65}"/>
   </bookViews>
@@ -321,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,6 +347,12 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -368,11 +374,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA4B6-672A-B24E-9B2A-CC0853115ECB}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -723,7 +730,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
-        <v>44866</v>
+        <v>44501</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -746,7 +753,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
-        <v>44866</v>
+        <v>44501</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -769,7 +776,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
-        <v>44866</v>
+        <v>44501</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -792,7 +799,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
-        <v>44866</v>
+        <v>44501</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -815,7 +822,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
-        <v>44872</v>
+        <v>44507</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -838,7 +845,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3">
-        <v>44872</v>
+        <v>44507</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -861,7 +868,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3">
-        <v>44872</v>
+        <v>44507</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -884,7 +891,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3">
-        <v>44872</v>
+        <v>44507</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -907,7 +914,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
-        <v>44872</v>
+        <v>44507</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -930,7 +937,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
-        <v>44872</v>
+        <v>44507</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -953,7 +960,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3">
-        <v>44872</v>
+        <v>44507</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -976,7 +983,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3">
-        <v>44872</v>
+        <v>44507</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -999,7 +1006,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3">
-        <v>44872</v>
+        <v>44507</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1021,8 +1028,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3">
-        <v>44872</v>
+      <c r="A16" s="4">
+        <v>44507</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1044,8 +1051,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3">
-        <v>44872</v>
+      <c r="A17" s="4">
+        <v>44507</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1067,8 +1074,8 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3">
-        <v>44872</v>
+      <c r="A18" s="4">
+        <v>44507</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1088,7 +1095,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3">
-        <v>44894</v>
+        <v>44529</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1111,7 +1118,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3">
-        <v>44894</v>
+        <v>44529</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -1134,7 +1141,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3">
-        <v>44894</v>
+        <v>44529</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -1157,7 +1164,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3">
-        <v>44894</v>
+        <v>44529</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1180,7 +1187,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3">
-        <v>44894</v>
+        <v>44529</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1203,7 +1210,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3">
-        <v>44894</v>
+        <v>44529</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>

--- a/data/spend.xlsx
+++ b/data/spend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE8D072-8CEF-434B-B065-C1B23A4238CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A08B6C6-25E9-DC49-94E7-CF5C54C558E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15960" xr2:uid="{13E6382E-6BF9-4A4F-A8CA-2A0895860F65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
   <si>
     <t>Type</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Aimants</t>
   </si>
 </sst>
 </file>
@@ -696,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA4B6-672A-B24E-9B2A-CC0853115ECB}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3457,6 +3460,29 @@
         <v>19.2</v>
       </c>
     </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="3">
+        <v>44866</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>93</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>20</v>
+      </c>
+      <c r="F141">
+        <v>0.2</v>
+      </c>
+      <c r="G141">
+        <v>24</v>
+      </c>
+    </row>
     <row r="142" spans="1:7">
       <c r="G142" s="1"/>
     </row>

--- a/data/spend.xlsx
+++ b/data/spend.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A08B6C6-25E9-DC49-94E7-CF5C54C558E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57658DEC-4CBE-C244-96E9-D822448C2F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15960" xr2:uid="{13E6382E-6BF9-4A4F-A8CA-2A0895860F65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="105">
   <si>
     <t>Type</t>
   </si>
@@ -318,6 +318,39 @@
   </si>
   <si>
     <t>Aimants</t>
+  </si>
+  <si>
+    <t>LALLEMAND WildBrew™ Helveticus Pitch</t>
+  </si>
+  <si>
+    <t>SafCider</t>
+  </si>
+  <si>
+    <t>FERMENTIS SafAle S-04</t>
+  </si>
+  <si>
+    <t>FERMENTIS SafAle US-05</t>
+  </si>
+  <si>
+    <t>Bouchon tonneau</t>
+  </si>
+  <si>
+    <t>sac houblon retutilisable</t>
+  </si>
+  <si>
+    <t>sac houblon jetables</t>
+  </si>
+  <si>
+    <t>thermometre collant</t>
+  </si>
+  <si>
+    <t>papier PH</t>
+  </si>
+  <si>
+    <t>NELSON SAUVIN</t>
+  </si>
+  <si>
+    <t>CASCADE</t>
   </si>
 </sst>
 </file>
@@ -697,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA4B6-672A-B24E-9B2A-CC0853115ECB}">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3486,6 +3519,391 @@
     <row r="142" spans="1:7">
       <c r="G142" s="1"/>
     </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" t="s">
+        <v>94</v>
+      </c>
+      <c r="D143">
+        <v>100</v>
+      </c>
+      <c r="E143">
+        <v>13.18</v>
+      </c>
+      <c r="F143">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G143">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144">
+        <v>2.27</v>
+      </c>
+      <c r="F144">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G144">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145">
+        <v>22</v>
+      </c>
+      <c r="E145">
+        <v>6.06</v>
+      </c>
+      <c r="F145">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G145">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D146">
+        <v>33</v>
+      </c>
+      <c r="E146">
+        <v>9.09</v>
+      </c>
+      <c r="F146">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G146">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B147" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" t="s">
+        <v>97</v>
+      </c>
+      <c r="D147">
+        <v>33</v>
+      </c>
+      <c r="E147">
+        <v>9.66</v>
+      </c>
+      <c r="F147">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G147">
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>98</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>1.67</v>
+      </c>
+      <c r="F148">
+        <v>0.2</v>
+      </c>
+      <c r="G148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>99</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>5.22</v>
+      </c>
+      <c r="F149">
+        <v>0.2</v>
+      </c>
+      <c r="G149">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" t="s">
+        <v>100</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>4.12</v>
+      </c>
+      <c r="F150">
+        <v>0.2</v>
+      </c>
+      <c r="G150">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>101</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>3.25</v>
+      </c>
+      <c r="F151">
+        <v>0.2</v>
+      </c>
+      <c r="G151">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>102</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>4.5</v>
+      </c>
+      <c r="F152">
+        <v>0.2</v>
+      </c>
+      <c r="G152">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>65</v>
+      </c>
+      <c r="D153">
+        <v>24</v>
+      </c>
+      <c r="E153">
+        <v>10.75</v>
+      </c>
+      <c r="F153">
+        <v>0.2</v>
+      </c>
+      <c r="G153">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" t="s">
+        <v>103</v>
+      </c>
+      <c r="D154">
+        <v>0.1</v>
+      </c>
+      <c r="E154">
+        <v>11.17</v>
+      </c>
+      <c r="F154">
+        <v>0.2</v>
+      </c>
+      <c r="G154">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B155" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>8.25</v>
+      </c>
+      <c r="F155">
+        <v>0.2</v>
+      </c>
+      <c r="G155">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>16.02</v>
+      </c>
+      <c r="F157">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G157">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B158" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" t="s">
+        <v>29</v>
+      </c>
+      <c r="D158">
+        <v>22</v>
+      </c>
+      <c r="E158">
+        <v>6.06</v>
+      </c>
+      <c r="F158">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G158">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B159" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" t="s">
+        <v>104</v>
+      </c>
+      <c r="D159">
+        <v>0.1</v>
+      </c>
+      <c r="E159">
+        <v>5.58</v>
+      </c>
+      <c r="F159">
+        <v>0.2</v>
+      </c>
+      <c r="G159">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B160" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>9.17</v>
+      </c>
+      <c r="F160">
+        <v>0.2</v>
+      </c>
+      <c r="G160">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/spend.xlsx
+++ b/data/spend.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57658DEC-4CBE-C244-96E9-D822448C2F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C0DAD8-8627-F046-A567-9AA138CFDF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15960" xr2:uid="{13E6382E-6BF9-4A4F-A8CA-2A0895860F65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="117">
   <si>
     <t>Type</t>
   </si>
@@ -351,6 +351,42 @@
   </si>
   <si>
     <t>CASCADE</t>
+  </si>
+  <si>
+    <t>FLAKED OATS</t>
+  </si>
+  <si>
+    <t>PEACHES</t>
+  </si>
+  <si>
+    <t>Balle Riz</t>
+  </si>
+  <si>
+    <t>JARRYLO</t>
+  </si>
+  <si>
+    <t>Capsules Bleues</t>
+  </si>
+  <si>
+    <t>CHERRY</t>
+  </si>
+  <si>
+    <t>LALLEMAND ABBAYE</t>
+  </si>
+  <si>
+    <t>SAFALE S04</t>
+  </si>
+  <si>
+    <t>SAFALE US-05</t>
+  </si>
+  <si>
+    <t>Belle Saison (lallemand?)</t>
+  </si>
+  <si>
+    <t>PBW Five Star</t>
+  </si>
+  <si>
+    <t>Oxybrew</t>
   </si>
 </sst>
 </file>
@@ -410,12 +446,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA4B6-672A-B24E-9B2A-CC0853115ECB}">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="K171" sqref="K171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3904,6 +3941,394 @@
         <v>11</v>
       </c>
     </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="3">
+        <v>45085</v>
+      </c>
+      <c r="B162" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" t="s">
+        <v>105</v>
+      </c>
+      <c r="D162">
+        <v>0.5</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+      <c r="F162">
+        <v>0.2</v>
+      </c>
+      <c r="G162">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="3">
+        <v>45085</v>
+      </c>
+      <c r="B163" t="s">
+        <v>43</v>
+      </c>
+      <c r="C163" t="s">
+        <v>106</v>
+      </c>
+      <c r="D163">
+        <v>1.2</v>
+      </c>
+      <c r="E163">
+        <v>7</v>
+      </c>
+      <c r="F163">
+        <v>0.2</v>
+      </c>
+      <c r="G163">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="3">
+        <v>45096</v>
+      </c>
+      <c r="B165" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165">
+        <v>25</v>
+      </c>
+      <c r="E165">
+        <v>40.57</v>
+      </c>
+      <c r="F165">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G165">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="3">
+        <v>45096</v>
+      </c>
+      <c r="B166" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166" t="s">
+        <v>107</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>4.5</v>
+      </c>
+      <c r="F166">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G166">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="3">
+        <v>45096</v>
+      </c>
+      <c r="B167" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" t="s">
+        <v>29</v>
+      </c>
+      <c r="D167">
+        <v>22</v>
+      </c>
+      <c r="E167">
+        <v>6.82</v>
+      </c>
+      <c r="F167">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G167">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="3">
+        <v>45096</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" t="s">
+        <v>108</v>
+      </c>
+      <c r="D168">
+        <v>0.1</v>
+      </c>
+      <c r="E168">
+        <v>3.21</v>
+      </c>
+      <c r="F168">
+        <v>0.2</v>
+      </c>
+      <c r="G168">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="3">
+        <v>45096</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>109</v>
+      </c>
+      <c r="D169">
+        <v>200</v>
+      </c>
+      <c r="E169">
+        <v>5.16</v>
+      </c>
+      <c r="F169">
+        <v>0.2</v>
+      </c>
+      <c r="G169">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="3">
+        <v>45096</v>
+      </c>
+      <c r="B170" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>12.09</v>
+      </c>
+      <c r="F170">
+        <v>0.2</v>
+      </c>
+      <c r="G170">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="5">
+        <v>45102</v>
+      </c>
+      <c r="B172" t="s">
+        <v>43</v>
+      </c>
+      <c r="C172" t="s">
+        <v>110</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>9</v>
+      </c>
+      <c r="F172">
+        <v>0.2</v>
+      </c>
+      <c r="G172">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="3">
+        <v>45246</v>
+      </c>
+      <c r="B174" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" t="s">
+        <v>40</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>3.6</v>
+      </c>
+      <c r="F174">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G174">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="3">
+        <v>45246</v>
+      </c>
+      <c r="B175" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" t="s">
+        <v>111</v>
+      </c>
+      <c r="D175">
+        <v>11</v>
+      </c>
+      <c r="E175">
+        <v>3.32</v>
+      </c>
+      <c r="F175">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G175">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="3">
+        <v>45246</v>
+      </c>
+      <c r="B176" t="s">
+        <v>23</v>
+      </c>
+      <c r="C176" t="s">
+        <v>112</v>
+      </c>
+      <c r="D176">
+        <v>22</v>
+      </c>
+      <c r="E176">
+        <v>5.4</v>
+      </c>
+      <c r="F176">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G176">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="3">
+        <v>45246</v>
+      </c>
+      <c r="B177" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" t="s">
+        <v>113</v>
+      </c>
+      <c r="D177">
+        <v>22</v>
+      </c>
+      <c r="E177">
+        <v>6.44</v>
+      </c>
+      <c r="F177">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G177">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="3">
+        <v>45246</v>
+      </c>
+      <c r="B178" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" t="s">
+        <v>114</v>
+      </c>
+      <c r="D178">
+        <v>11</v>
+      </c>
+      <c r="E178">
+        <v>3.32</v>
+      </c>
+      <c r="F178">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G178">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="3">
+        <v>45246</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" t="s">
+        <v>115</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>13.25</v>
+      </c>
+      <c r="F179">
+        <v>0.2</v>
+      </c>
+      <c r="G179">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="3">
+        <v>45246</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" t="s">
+        <v>116</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>4.84</v>
+      </c>
+      <c r="F180">
+        <v>0.2</v>
+      </c>
+      <c r="G180">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="3">
+        <v>45246</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>5.42</v>
+      </c>
+      <c r="F181">
+        <v>0.2</v>
+      </c>
+      <c r="G181">
+        <v>6.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/spend.xlsx
+++ b/data/spend.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/code/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C0DAD8-8627-F046-A567-9AA138CFDF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F785895-F8DC-CF45-9D11-55E6FB90EFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15960" xr2:uid="{13E6382E-6BF9-4A4F-A8CA-2A0895860F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="119">
   <si>
     <t>Type</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>Oxybrew</t>
+  </si>
+  <si>
+    <t>Salts (sulfate calcium, sulfate magnesium, chlorure calcium)</t>
+  </si>
+  <si>
+    <t>LOC TIREUSE COUTU</t>
   </si>
 </sst>
 </file>
@@ -471,9 +477,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,7 +517,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -617,7 +623,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -759,7 +765,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -767,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA4B6-672A-B24E-9B2A-CC0853115ECB}">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="K171" sqref="K171"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4329,6 +4335,141 @@
         <v>6.5</v>
       </c>
     </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="3">
+        <v>45410</v>
+      </c>
+      <c r="B183" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" t="s">
+        <v>112</v>
+      </c>
+      <c r="D183">
+        <v>11</v>
+      </c>
+      <c r="E183">
+        <v>2.7</v>
+      </c>
+      <c r="F183">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G183">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="3">
+        <v>45410</v>
+      </c>
+      <c r="B184" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" t="s">
+        <v>29</v>
+      </c>
+      <c r="D184">
+        <v>11</v>
+      </c>
+      <c r="E184">
+        <v>3.41</v>
+      </c>
+      <c r="F184">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G184">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="3">
+        <v>45410</v>
+      </c>
+      <c r="B185" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" t="s">
+        <v>95</v>
+      </c>
+      <c r="D185">
+        <v>5</v>
+      </c>
+      <c r="E185">
+        <v>1.65</v>
+      </c>
+      <c r="F185">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G185">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="3">
+        <v>45410</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" t="s">
+        <v>117</v>
+      </c>
+      <c r="D186">
+        <v>300</v>
+      </c>
+      <c r="E186">
+        <v>6.3</v>
+      </c>
+      <c r="F186">
+        <v>0.2</v>
+      </c>
+      <c r="G186">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="3">
+        <v>45410</v>
+      </c>
+      <c r="B187" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>6.33</v>
+      </c>
+      <c r="F187">
+        <v>0.2</v>
+      </c>
+      <c r="G187">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="3">
+        <v>45487</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" t="s">
+        <v>118</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>29</v>
+      </c>
+      <c r="F189">
+        <v>0.2</v>
+      </c>
+      <c r="G189">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
